--- a/Dataset/Authors/APUL_met.xlsx
+++ b/Dataset/Authors/APUL_met.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Dropbox\ALEXANDER\STUDIA\2025_Database_composti\Auctores_DB\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B497705-4B79-4C83-A969-271CC68BC373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63F1DBD-5261-4236-9A33-C2283B912A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>Apuleius Madaurensis Afer</t>
   </si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>Compounds</t>
+  </si>
+  <si>
+    <t>accipiter</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA195"/>
+  <dimension ref="A1:AA196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1186,10 +1189,10 @@
       <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="8"/>
@@ -1220,7 +1223,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -1253,10 +1256,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1286,10 +1289,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1319,10 +1322,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1352,10 +1355,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1385,10 +1388,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1418,10 +1421,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1451,7 +1454,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
@@ -1484,10 +1487,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1517,10 +1520,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1550,10 +1553,10 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1583,10 +1586,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1616,10 +1619,10 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1649,10 +1652,10 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1682,10 +1685,10 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1715,10 +1718,10 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1748,7 +1751,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -1781,7 +1784,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
@@ -1814,7 +1817,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
@@ -1847,7 +1850,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8">
         <v>1</v>
@@ -1880,10 +1883,10 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1913,7 +1916,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8">
         <v>3</v>
@@ -1946,10 +1949,10 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1979,10 +1982,10 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2012,7 +2015,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8">
         <v>1</v>
@@ -2045,7 +2048,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
@@ -2078,10 +2081,10 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2111,10 +2114,10 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2144,7 +2147,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
@@ -2177,7 +2180,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
@@ -2210,10 +2213,10 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2243,10 +2246,10 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2276,10 +2279,10 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2309,10 +2312,10 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2342,7 +2345,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
@@ -2375,10 +2378,10 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -2408,10 +2411,10 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2441,10 +2444,10 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2474,10 +2477,10 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -2507,10 +2510,10 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -2540,10 +2543,10 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -2573,10 +2576,10 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="B48" s="8">
+        <v>16</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2606,10 +2609,10 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>8</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -2639,7 +2642,7 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="8">
         <v>1</v>
@@ -2672,10 +2675,10 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2705,7 +2708,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="8">
         <v>2</v>
@@ -2738,10 +2741,10 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -2771,10 +2774,10 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2804,7 +2807,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="8">
         <v>1</v>
@@ -2837,10 +2840,10 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -2870,10 +2873,10 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -2903,10 +2906,10 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -2936,10 +2939,10 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2969,10 +2972,10 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -3002,10 +3005,10 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -3035,10 +3038,10 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -3068,7 +3071,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="8">
         <v>2</v>
@@ -3101,10 +3104,10 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -3134,10 +3137,10 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -3167,7 +3170,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="8">
         <v>3</v>
@@ -3200,10 +3203,10 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -3233,7 +3236,7 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="8">
         <v>5</v>
@@ -3266,10 +3269,10 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -3299,10 +3302,10 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -3332,10 +3335,10 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -3365,10 +3368,10 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -3398,10 +3401,10 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -3431,7 +3434,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="8">
         <v>1</v>
@@ -3464,10 +3467,10 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -3497,10 +3500,10 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -3530,7 +3533,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="8">
         <v>1</v>
@@ -3563,10 +3566,10 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -3596,7 +3599,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="8">
         <v>5</v>
@@ -3629,10 +3632,10 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -3662,10 +3665,10 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -3695,7 +3698,7 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="8">
         <v>1</v>
@@ -3728,7 +3731,7 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="8">
         <v>1</v>
@@ -3761,7 +3764,7 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="8">
         <v>1</v>
@@ -3794,10 +3797,10 @@
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -3827,7 +3830,7 @@
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="8">
         <v>2</v>
@@ -3860,10 +3863,10 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -3893,10 +3896,10 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -3926,10 +3929,10 @@
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -3959,10 +3962,10 @@
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -3992,7 +3995,7 @@
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="8">
         <v>1</v>
@@ -4025,7 +4028,7 @@
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="8">
         <v>1</v>
@@ -4058,7 +4061,7 @@
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="8">
         <v>1</v>
@@ -4091,10 +4094,10 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -4124,7 +4127,7 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="8">
         <v>2</v>
@@ -4157,10 +4160,10 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -4190,7 +4193,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="8">
         <v>1</v>
@@ -4223,10 +4226,10 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -4256,10 +4259,10 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -4289,10 +4292,10 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -4322,10 +4325,10 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -4355,7 +4358,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="8">
         <v>1</v>
@@ -4388,10 +4391,10 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -4421,10 +4424,10 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -4454,10 +4457,10 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -4487,10 +4490,10 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -4520,10 +4523,10 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -4553,10 +4556,10 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -4586,10 +4589,10 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -4619,10 +4622,10 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -4652,10 +4655,10 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -4685,7 +4688,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="8">
         <v>1</v>
@@ -4718,7 +4721,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="8">
         <v>1</v>
@@ -4751,10 +4754,10 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -4784,10 +4787,10 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -4817,7 +4820,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="8">
         <v>3</v>
@@ -4850,10 +4853,10 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -4883,10 +4886,10 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -4916,10 +4919,10 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="8"/>
@@ -4949,10 +4952,10 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -4982,10 +4985,10 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -5015,7 +5018,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="8">
         <v>1</v>
@@ -5048,7 +5051,7 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="8">
         <v>1</v>
@@ -5081,10 +5084,10 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="8">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -5114,10 +5117,10 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="8">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -5147,10 +5150,10 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -5180,10 +5183,10 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -5213,10 +5216,10 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -5246,10 +5249,10 @@
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -5279,10 +5282,10 @@
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -5312,10 +5315,10 @@
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -5345,7 +5348,7 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="8">
         <v>1</v>
@@ -5378,10 +5381,10 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -5411,10 +5414,10 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -5444,7 +5447,7 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="8">
         <v>1</v>
@@ -5477,10 +5480,10 @@
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -5510,10 +5513,10 @@
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -5543,7 +5546,7 @@
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="8">
         <v>1</v>
@@ -5576,7 +5579,7 @@
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="8">
         <v>1</v>
@@ -5609,7 +5612,7 @@
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="8">
         <v>1</v>
@@ -5642,10 +5645,10 @@
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -5675,10 +5678,10 @@
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -5708,10 +5711,10 @@
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -5741,10 +5744,10 @@
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -5774,7 +5777,7 @@
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="8">
         <v>1</v>
@@ -5807,7 +5810,7 @@
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="8">
         <v>1</v>
@@ -5840,10 +5843,10 @@
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -5873,10 +5876,10 @@
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -5906,7 +5909,7 @@
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="8">
         <v>1</v>
@@ -5939,7 +5942,7 @@
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="8">
         <v>1</v>
@@ -5972,7 +5975,7 @@
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="8">
         <v>1</v>
@@ -6005,7 +6008,7 @@
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="8">
         <v>1</v>
@@ -6038,7 +6041,7 @@
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="8">
         <v>1</v>
@@ -6071,10 +6074,10 @@
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -6104,10 +6107,10 @@
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -6137,7 +6140,7 @@
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="8">
         <v>1</v>
@@ -6170,10 +6173,10 @@
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
@@ -6203,10 +6206,10 @@
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
@@ -6236,10 +6239,10 @@
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
@@ -6269,10 +6272,10 @@
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -6302,10 +6305,10 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -6335,10 +6338,10 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -6368,7 +6371,7 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="8">
         <v>9</v>
@@ -6401,10 +6404,10 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
@@ -6434,7 +6437,7 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="8">
         <v>5</v>
@@ -6467,10 +6470,10 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
@@ -6500,10 +6503,10 @@
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
@@ -6533,10 +6536,10 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
@@ -6566,10 +6569,10 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
@@ -6599,10 +6602,10 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
@@ -6632,7 +6635,7 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="8">
         <v>1</v>
@@ -6665,7 +6668,7 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="8">
         <v>1</v>
@@ -6698,10 +6701,10 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
@@ -6731,10 +6734,10 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
@@ -6764,10 +6767,10 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
@@ -6797,7 +6800,7 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="8">
         <v>1</v>
@@ -6830,10 +6833,10 @@
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
@@ -6863,10 +6866,10 @@
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
@@ -6896,10 +6899,10 @@
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
@@ -6929,10 +6932,10 @@
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
@@ -6962,7 +6965,7 @@
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="8">
         <v>1</v>
@@ -6995,10 +6998,10 @@
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
@@ -7028,10 +7031,10 @@
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
@@ -7061,7 +7064,7 @@
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="8">
         <v>1</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="185" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="8">
         <v>1</v>
@@ -7127,7 +7130,7 @@
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="8">
         <v>1</v>
@@ -7160,10 +7163,10 @@
     </row>
     <row r="187" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
@@ -7193,10 +7196,10 @@
     </row>
     <row r="188" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
@@ -7226,7 +7229,7 @@
     </row>
     <row r="189" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="8">
         <v>1</v>
@@ -7259,7 +7262,7 @@
     </row>
     <row r="190" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="8">
         <v>1</v>
@@ -7292,7 +7295,7 @@
     </row>
     <row r="191" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="8">
         <v>1</v>
@@ -7325,7 +7328,7 @@
     </row>
     <row r="192" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="8">
         <v>1</v>
@@ -7358,7 +7361,7 @@
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="8">
         <v>1</v>
@@ -7391,7 +7394,7 @@
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="8">
         <v>1</v>
@@ -7424,7 +7427,7 @@
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="8">
         <v>1</v>
@@ -7455,7 +7458,18 @@
       <c r="Z195" s="8"/>
       <c r="AA195" s="8"/>
     </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B196">
+    <sortCondition ref="A196"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>